--- a/xlsx/Population/KP_WSF_adm3_Pop.xlsx
+++ b/xlsx/Population/KP_WSF_adm3_Pop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/Documents/WB_FY2023/KPK Population Growth Analysis/KP_Pop_ServiceAccessibility_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/Documents/WB_FY2023/KPK Population Growth Analysis/KP_Pop_ServiceAccessibility_Project/xlsx/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{E553F590-0EF6-4027-8C40-E7AF21FD20A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0AB23B2-629E-46BA-8A17-8BB8B39105A7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8070C8B1-0021-401D-B2A5-E4C411D53DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDE811F-8550-4D19-BEE2-B699036A2286}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="417">
   <si>
     <t>ADM3_NAME</t>
   </si>
@@ -1294,6 +1294,18 @@
   </si>
   <si>
     <t>WPOP20_Pop_density/sqkm_2030</t>
+  </si>
+  <si>
+    <t>Primary schools per capita</t>
+  </si>
+  <si>
+    <t>Hospitals per capita</t>
+  </si>
+  <si>
+    <t>Police Stations Per capita</t>
+  </si>
+  <si>
+    <t>1% increase in KP</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1314,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1837,7 +1849,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1845,16 +1857,16 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1862,6 +1874,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2219,9 +2232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X155"/>
+  <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2246,7 +2261,7 @@
     <col min="23" max="24" width="29.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2335,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>1719.7182534561239</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2506,7 @@
         <v>719.49304913638866</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2575,7 +2590,7 @@
         <v>98.139034412346561</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>256.72608399613227</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2742,8 +2757,9 @@
         <f t="shared" si="9"/>
         <v>262.41076396373683</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2826,8 +2842,9 @@
         <f t="shared" si="9"/>
         <v>387.86081780657014</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2910,8 +2927,9 @@
         <f t="shared" si="9"/>
         <v>1075.4437333289929</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2994,8 +3012,9 @@
         <f t="shared" si="9"/>
         <v>1161.8085213961413</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3078,8 +3097,9 @@
         <f t="shared" si="9"/>
         <v>428.85766379906465</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3162,8 +3182,9 @@
         <f t="shared" si="9"/>
         <v>1277.3098744809374</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3246,8 +3267,9 @@
         <f t="shared" si="9"/>
         <v>365.13673579362342</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3330,8 +3352,9 @@
         <f t="shared" si="9"/>
         <v>2642.5881277546191</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3414,8 +3437,9 @@
         <f t="shared" si="9"/>
         <v>1280.7584281795264</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3498,8 +3522,9 @@
         <f t="shared" si="9"/>
         <v>916.758124454013</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -3582,8 +3607,9 @@
         <f t="shared" si="9"/>
         <v>320.51646573215669</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -3666,8 +3692,9 @@
         <f t="shared" si="9"/>
         <v>630.70176084679554</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -3750,8 +3777,9 @@
         <f t="shared" si="9"/>
         <v>46.410548972088726</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -3835,7 +3863,7 @@
         <v>283.01196325100375</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -3919,7 +3947,7 @@
         <v>786.0627711155754</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -4003,7 +4031,7 @@
         <v>835.08552142002952</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -4087,7 +4115,7 @@
         <v>650.55326566243366</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -4171,7 +4199,7 @@
         <v>410.09040262744753</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -4255,7 +4283,7 @@
         <v>654.39300225822342</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -4339,7 +4367,7 @@
         <v>2506.5080943911589</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -4423,7 +4451,7 @@
         <v>2899.2330318574664</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -4507,7 +4535,7 @@
         <v>1691.4566626188928</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -4591,7 +4619,7 @@
         <v>141.10765289248488</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -4675,7 +4703,7 @@
         <v>71.565920199803571</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -4759,7 +4787,7 @@
         <v>23.001064433561055</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -4843,7 +4871,7 @@
         <v>9.970828972227368</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -4927,7 +4955,7 @@
         <v>58.289256668104585</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -5011,7 +5039,7 @@
         <v>515.39053506179528</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -5095,7 +5123,7 @@
         <v>91.285846815457859</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -5179,7 +5207,7 @@
         <v>187.24287961787439</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -5263,7 +5291,7 @@
         <v>316.62058315180161</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5375,7 @@
         <v>210.64943588127008</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -5431,7 +5459,7 @@
         <v>49.464769294161471</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
@@ -5515,7 +5543,7 @@
         <v>690.29899404682828</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -5599,7 +5627,7 @@
         <v>400.9643145560841</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -5683,7 +5711,7 @@
         <v>435.49253649868365</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -5767,7 +5795,7 @@
         <v>958.9716647316219</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -5851,7 +5879,7 @@
         <v>768.36590989514548</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>61</v>
       </c>
@@ -5935,7 +5963,7 @@
         <v>222.19013551648266</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
@@ -6019,7 +6047,7 @@
         <v>509.8311741601168</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
@@ -6103,7 +6131,7 @@
         <v>449.18818954039824</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -6186,8 +6214,9 @@
         <f t="shared" si="9"/>
         <v>406.7047974560885</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -6270,8 +6299,9 @@
         <f t="shared" si="9"/>
         <v>472.0515864653068</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>67</v>
       </c>
@@ -6354,8 +6384,9 @@
         <f t="shared" si="9"/>
         <v>383.41761070423343</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>68</v>
       </c>
@@ -6438,8 +6469,9 @@
         <f t="shared" si="9"/>
         <v>765.37659471598897</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>69</v>
       </c>
@@ -6523,7 +6555,7 @@
         <v>775.00738637596453</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
@@ -6607,7 +6639,7 @@
         <v>234.31263114657372</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>71</v>
       </c>
@@ -6691,7 +6723,7 @@
         <v>355.52251171330823</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>72</v>
       </c>
@@ -6775,7 +6807,7 @@
         <v>440.36278909722625</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
@@ -6859,7 +6891,7 @@
         <v>659.23020946450924</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
@@ -6943,7 +6975,7 @@
         <v>45.021837061941348</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>76</v>
       </c>
@@ -7027,7 +7059,7 @@
         <v>65.723753065436085</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
@@ -7111,7 +7143,7 @@
         <v>92.125929356382301</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
@@ -7195,7 +7227,7 @@
         <v>41.145521253957881</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>80</v>
       </c>
@@ -7279,7 +7311,7 @@
         <v>30.484538865423339</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>81</v>
       </c>
@@ -7363,7 +7395,7 @@
         <v>314.67581437991873</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
@@ -7447,7 +7479,7 @@
         <v>619.17146324800569</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
@@ -7530,8 +7562,9 @@
         <f t="shared" si="9"/>
         <v>195.25257036668384</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>86</v>
       </c>
@@ -7614,8 +7647,9 @@
         <f t="shared" si="9"/>
         <v>170.29830205811052</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>87</v>
       </c>
@@ -7698,8 +7732,9 @@
         <f t="shared" si="9"/>
         <v>365.90650159110248</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>88</v>
       </c>
@@ -7783,7 +7818,7 @@
         <v>312.55660080172811</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
@@ -7867,7 +7902,7 @@
         <v>489.8458674823068</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -7945,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -8005,11 +8040,11 @@
         <v>374823.56855939125</v>
       </c>
       <c r="S69" s="7">
-        <f>$J69*(1+$L69)^8</f>
+        <f t="shared" ref="S69:S100" si="20">$J69*(1+$L69)^8</f>
         <v>540833.01640784426</v>
       </c>
       <c r="T69" s="7">
-        <f>$J69*(1+$L69)^13</f>
+        <f t="shared" ref="T69:T100" si="21">$J69*(1+$L69)^13</f>
         <v>635234.50656280969</v>
       </c>
       <c r="U69" s="6">
@@ -8029,7 +8064,7 @@
         <v>1456.7768518916419</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -8089,11 +8124,11 @@
         <v>430726.40939461347</v>
       </c>
       <c r="S70" s="7">
-        <f>$J70*(1+$L70)^8</f>
+        <f t="shared" si="20"/>
         <v>296457.57460901752</v>
       </c>
       <c r="T70" s="7">
-        <f>$J70*(1+$L70)^13</f>
+        <f t="shared" si="21"/>
         <v>348203.7438734207</v>
       </c>
       <c r="U70" s="6">
@@ -8113,7 +8148,7 @@
         <v>1401.3151459306264</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -8173,11 +8208,11 @@
         <v>118595.68496871067</v>
       </c>
       <c r="S71" s="7">
-        <f>$J71*(1+$L71)^8</f>
+        <f t="shared" si="20"/>
         <v>70197.432295410268</v>
       </c>
       <c r="T71" s="7">
-        <f>$J71*(1+$L71)^13</f>
+        <f t="shared" si="21"/>
         <v>82450.27561801867</v>
       </c>
       <c r="U71" s="6">
@@ -8197,7 +8232,7 @@
         <v>387.29645946159138</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -8257,11 +8292,11 @@
         <v>207391.43309524027</v>
       </c>
       <c r="S72" s="7">
-        <f>$J72*(1+$L72)^8</f>
+        <f t="shared" si="20"/>
         <v>101672.82982999772</v>
       </c>
       <c r="T72" s="7">
-        <f>$J72*(1+$L72)^13</f>
+        <f t="shared" si="21"/>
         <v>119419.65066570287</v>
       </c>
       <c r="U72" s="6">
@@ -8281,7 +8316,7 @@
         <v>1130.9763632423414</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>97</v>
       </c>
@@ -8341,11 +8376,11 @@
         <v>306288.13031633716</v>
       </c>
       <c r="S73" s="7">
-        <f>$J73*(1+$L73)^8</f>
+        <f t="shared" si="20"/>
         <v>356981.6129062507</v>
       </c>
       <c r="T73" s="7">
-        <f>$J73*(1+$L73)^13</f>
+        <f t="shared" si="21"/>
         <v>419292.15089836926</v>
       </c>
       <c r="U73" s="6">
@@ -8365,7 +8400,7 @@
         <v>1340.3430354930836</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>98</v>
       </c>
@@ -8425,11 +8460,11 @@
         <v>404190.40405816631</v>
       </c>
       <c r="S74" s="7">
-        <f>$J74*(1+$L74)^8</f>
+        <f t="shared" si="20"/>
         <v>458733.35113874759</v>
       </c>
       <c r="T74" s="7">
-        <f>$J74*(1+$L74)^13</f>
+        <f t="shared" si="21"/>
         <v>538804.48329503997</v>
       </c>
       <c r="U74" s="6">
@@ -8449,7 +8484,7 @@
         <v>1864.9912192957479</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>99</v>
       </c>
@@ -8509,11 +8544,11 @@
         <v>567859.04593467677</v>
       </c>
       <c r="S75" s="7">
-        <f>$J75*(1+$L75)^8</f>
+        <f t="shared" si="20"/>
         <v>447527.02531957167</v>
       </c>
       <c r="T75" s="7">
-        <f>$J75*(1+$L75)^13</f>
+        <f t="shared" si="21"/>
         <v>505348.55053756677</v>
       </c>
       <c r="U75" s="6">
@@ -8533,7 +8568,7 @@
         <v>738.88217078224216</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>101</v>
       </c>
@@ -8593,11 +8628,11 @@
         <v>354801.99731892772</v>
       </c>
       <c r="S76" s="7">
-        <f>$J76*(1+$L76)^8</f>
+        <f t="shared" si="20"/>
         <v>370013.40845497645</v>
       </c>
       <c r="T76" s="7">
-        <f>$J76*(1+$L76)^13</f>
+        <f t="shared" si="21"/>
         <v>417819.995359305</v>
       </c>
       <c r="U76" s="6">
@@ -8617,7 +8652,7 @@
         <v>1884.1178451086087</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>102</v>
       </c>
@@ -8677,11 +8712,11 @@
         <v>454340.45740909985</v>
       </c>
       <c r="S77" s="7">
-        <f>$J77*(1+$L77)^8</f>
+        <f t="shared" si="20"/>
         <v>443870.10785535385</v>
       </c>
       <c r="T77" s="7">
-        <f>$J77*(1+$L77)^13</f>
+        <f t="shared" si="21"/>
         <v>501463.79123768234</v>
       </c>
       <c r="U77" s="6">
@@ -8701,7 +8736,7 @@
         <v>217.96507259951088</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>103</v>
       </c>
@@ -8761,11 +8796,11 @@
         <v>1014444.3212757882</v>
       </c>
       <c r="S78" s="7">
-        <f>$J78*(1+$L78)^8</f>
+        <f t="shared" si="20"/>
         <v>924154.53610544768</v>
       </c>
       <c r="T78" s="7">
-        <f>$J78*(1+$L78)^13</f>
+        <f t="shared" si="21"/>
         <v>1044066.7870249095</v>
       </c>
       <c r="U78" s="6">
@@ -8785,7 +8820,7 @@
         <v>1249.3874152069932</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>104</v>
       </c>
@@ -8845,11 +8880,11 @@
         <v>333976.00640067458</v>
       </c>
       <c r="S79" s="7">
-        <f>$J79*(1+$L79)^8</f>
+        <f t="shared" si="20"/>
         <v>286204.37846187217</v>
       </c>
       <c r="T79" s="7">
-        <f>$J79*(1+$L79)^13</f>
+        <f t="shared" si="21"/>
         <v>323340.3875421249</v>
       </c>
       <c r="U79" s="6">
@@ -8869,7 +8904,7 @@
         <v>875.70415187107085</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>105</v>
       </c>
@@ -8929,11 +8964,11 @@
         <v>233954.14290064367</v>
       </c>
       <c r="S80" s="7">
-        <f>$J80*(1+$L80)^8</f>
+        <f t="shared" si="20"/>
         <v>309267.0650075677</v>
       </c>
       <c r="T80" s="7">
-        <f>$J80*(1+$L80)^13</f>
+        <f t="shared" si="21"/>
         <v>349395.53752104513</v>
       </c>
       <c r="U80" s="6">
@@ -8953,7 +8988,7 @@
         <v>931.30064420805149</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>106</v>
       </c>
@@ -9013,11 +9048,11 @@
         <v>77264.950638640701</v>
       </c>
       <c r="S81" s="7">
-        <f>$J81*(1+$L81)^8</f>
+        <f t="shared" si="20"/>
         <v>155646.69590629463</v>
       </c>
       <c r="T81" s="7">
-        <f>$J81*(1+$L81)^13</f>
+        <f t="shared" si="21"/>
         <v>175842.39362255967</v>
       </c>
       <c r="U81" s="6">
@@ -9037,7 +9072,7 @@
         <v>1162.3434367914381</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>107</v>
       </c>
@@ -9097,11 +9132,11 @@
         <v>342890.01518303371</v>
       </c>
       <c r="S82" s="7">
-        <f>$J82*(1+$L82)^8</f>
+        <f t="shared" si="20"/>
         <v>361600.6615833976</v>
       </c>
       <c r="T82" s="7">
-        <f>$J82*(1+$L82)^13</f>
+        <f t="shared" si="21"/>
         <v>410917.24287002563</v>
       </c>
       <c r="U82" s="6">
@@ -9121,7 +9156,7 @@
         <v>1066.0832212755683</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>108</v>
       </c>
@@ -9181,11 +9216,11 @@
         <v>1222616.3782374079</v>
       </c>
       <c r="S83" s="7">
-        <f>$J83*(1+$L83)^8</f>
+        <f t="shared" si="20"/>
         <v>1148518.2333347627</v>
       </c>
       <c r="T83" s="7">
-        <f>$J83*(1+$L83)^13</f>
+        <f t="shared" si="21"/>
         <v>1305157.8605008344</v>
       </c>
       <c r="U83" s="6">
@@ -9205,7 +9240,7 @@
         <v>5385.6346544491889</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>109</v>
       </c>
@@ -9265,11 +9300,11 @@
         <v>903338.54576214217</v>
       </c>
       <c r="S84" s="7">
-        <f>$J84*(1+$L84)^8</f>
+        <f t="shared" si="20"/>
         <v>908356.23360044044</v>
       </c>
       <c r="T84" s="7">
-        <f>$J84*(1+$L84)^13</f>
+        <f t="shared" si="21"/>
         <v>1032241.582248343</v>
       </c>
       <c r="U84" s="6">
@@ -9289,7 +9324,7 @@
         <v>2583.1260270293515</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>110</v>
       </c>
@@ -9349,11 +9384,11 @@
         <v>299666.59190840897</v>
       </c>
       <c r="S85" s="7">
-        <f>$J85*(1+$L85)^8</f>
+        <f t="shared" si="20"/>
         <v>317640.14329327131</v>
       </c>
       <c r="T85" s="7">
-        <f>$J85*(1+$L85)^13</f>
+        <f t="shared" si="21"/>
         <v>360961.20879692474</v>
       </c>
       <c r="U85" s="6">
@@ -9373,7 +9408,7 @@
         <v>888.87057209285342</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>111</v>
       </c>
@@ -9433,11 +9468,11 @@
         <v>433090.06341612479</v>
       </c>
       <c r="S86" s="7">
-        <f>$J86*(1+$L86)^8</f>
+        <f t="shared" si="20"/>
         <v>410828.63842603908</v>
       </c>
       <c r="T86" s="7">
-        <f>$J86*(1+$L86)^13</f>
+        <f t="shared" si="21"/>
         <v>466859.13309685612</v>
       </c>
       <c r="U86" s="6">
@@ -9457,7 +9492,7 @@
         <v>2300.6713335005875</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>112</v>
       </c>
@@ -9517,11 +9552,11 @@
         <v>32940.264239972588</v>
       </c>
       <c r="S87" s="7">
-        <f>$J87*(1+$L87)^8</f>
+        <f t="shared" si="20"/>
         <v>20877.764449613584</v>
       </c>
       <c r="T87" s="7">
-        <f>$J87*(1+$L87)^13</f>
+        <f t="shared" si="21"/>
         <v>22881.745984618286</v>
       </c>
       <c r="U87" s="6">
@@ -9540,8 +9575,9 @@
         <f t="shared" si="19"/>
         <v>98.298337192441835</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y87" s="2"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>114</v>
       </c>
@@ -9601,11 +9637,11 @@
         <v>110357.53150479951</v>
       </c>
       <c r="S88" s="7">
-        <f>$J88*(1+$L88)^8</f>
+        <f t="shared" si="20"/>
         <v>121256.62007044847</v>
       </c>
       <c r="T88" s="7">
-        <f>$J88*(1+$L88)^13</f>
+        <f t="shared" si="21"/>
         <v>132895.60700339839</v>
       </c>
       <c r="U88" s="6">
@@ -9624,8 +9660,9 @@
         <f t="shared" si="19"/>
         <v>332.23230635183251</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y88" s="2"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>115</v>
       </c>
@@ -9685,11 +9722,11 @@
         <v>75655.559539457929</v>
       </c>
       <c r="S89" s="7">
-        <f>$J89*(1+$L89)^8</f>
+        <f t="shared" si="20"/>
         <v>52063.563238132338</v>
       </c>
       <c r="T89" s="7">
-        <f>$J89*(1+$L89)^13</f>
+        <f t="shared" si="21"/>
         <v>57060.957457593307</v>
       </c>
       <c r="U89" s="6">
@@ -9708,8 +9745,9 @@
         <f t="shared" si="19"/>
         <v>269.94112185286099</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y89" s="2"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>116</v>
       </c>
@@ -9769,11 +9807,11 @@
         <v>35168.090467678805</v>
       </c>
       <c r="S90" s="7">
-        <f>$J90*(1+$L90)^8</f>
+        <f t="shared" si="20"/>
         <v>24987.314423639022</v>
       </c>
       <c r="T90" s="7">
-        <f>$J90*(1+$L90)^13</f>
+        <f t="shared" si="21"/>
         <v>27385.756883088074</v>
       </c>
       <c r="U90" s="6">
@@ -9792,8 +9830,9 @@
         <f t="shared" si="19"/>
         <v>232.96007699922205</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y90" s="2"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>117</v>
       </c>
@@ -9853,11 +9892,11 @@
         <v>129273.86820594923</v>
       </c>
       <c r="S91" s="7">
-        <f>$J91*(1+$L91)^8</f>
+        <f t="shared" si="20"/>
         <v>215049.07945227047</v>
       </c>
       <c r="T91" s="7">
-        <f>$J91*(1+$L91)^13</f>
+        <f t="shared" si="21"/>
         <v>235690.86729225566</v>
       </c>
       <c r="U91" s="6">
@@ -9876,8 +9915,9 @@
         <f t="shared" si="19"/>
         <v>517.94060516042282</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y91" s="2"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>118</v>
       </c>
@@ -9937,11 +9977,11 @@
         <v>31667.919771650522</v>
       </c>
       <c r="S92" s="7">
-        <f>$J92*(1+$L92)^8</f>
+        <f t="shared" si="20"/>
         <v>30568.613627584527</v>
       </c>
       <c r="T92" s="7">
-        <f>$J92*(1+$L92)^13</f>
+        <f t="shared" si="21"/>
         <v>33502.784927783592</v>
       </c>
       <c r="U92" s="6">
@@ -9960,8 +10000,9 @@
         <f t="shared" si="19"/>
         <v>130.26107082258358</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y92" s="2"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>119</v>
       </c>
@@ -10021,11 +10062,11 @@
         <v>139506.45391080089</v>
       </c>
       <c r="S93" s="7">
-        <f>$J93*(1+$L93)^8</f>
+        <f t="shared" si="20"/>
         <v>60097.39184331365</v>
       </c>
       <c r="T93" s="7">
-        <f>$J93*(1+$L93)^13</f>
+        <f t="shared" si="21"/>
         <v>65865.924381679928</v>
       </c>
       <c r="U93" s="6">
@@ -10044,8 +10085,9 @@
         <f t="shared" si="19"/>
         <v>204.72522188751242</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>120</v>
       </c>
@@ -10105,11 +10147,11 @@
         <v>72424.53863480546</v>
       </c>
       <c r="S94" s="7">
-        <f>$J94*(1+$L94)^8</f>
+        <f t="shared" si="20"/>
         <v>84919.120004262993</v>
       </c>
       <c r="T94" s="7">
-        <f>$J94*(1+$L94)^13</f>
+        <f t="shared" si="21"/>
         <v>93070.200972155668</v>
       </c>
       <c r="U94" s="6">
@@ -10128,8 +10170,9 @@
         <f t="shared" si="19"/>
         <v>349.56252239529937</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y94" s="2"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>121</v>
       </c>
@@ -10189,11 +10232,11 @@
         <v>199478.76785194402</v>
       </c>
       <c r="S95" s="7">
-        <f>$J95*(1+$L95)^8</f>
+        <f t="shared" si="20"/>
         <v>195290.95251790143</v>
       </c>
       <c r="T95" s="7">
-        <f>$J95*(1+$L95)^13</f>
+        <f t="shared" si="21"/>
         <v>217100.78373439479</v>
       </c>
       <c r="U95" s="6">
@@ -10212,8 +10255,9 @@
         <f t="shared" si="19"/>
         <v>187.75332756484539</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y95" s="2"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -10273,11 +10317,11 @@
         <v>35982.444940470639</v>
       </c>
       <c r="S96" s="7">
-        <f>$J96*(1+$L96)^8</f>
+        <f t="shared" si="20"/>
         <v>33712.151023334693</v>
       </c>
       <c r="T96" s="7">
-        <f>$J96*(1+$L96)^13</f>
+        <f t="shared" si="21"/>
         <v>37477.07875953622</v>
       </c>
       <c r="U96" s="6">
@@ -10296,8 +10340,9 @@
         <f t="shared" si="19"/>
         <v>146.30189051555192</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y96" s="2"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -10357,11 +10402,11 @@
         <v>14811.548759260595</v>
       </c>
       <c r="S97" s="7">
-        <f>$J97*(1+$L97)^8</f>
+        <f t="shared" si="20"/>
         <v>21322.559416002827</v>
       </c>
       <c r="T97" s="7">
-        <f>$J97*(1+$L97)^13</f>
+        <f t="shared" si="21"/>
         <v>23703.834206108859</v>
       </c>
       <c r="U97" s="6">
@@ -10380,8 +10425,9 @@
         <f t="shared" si="19"/>
         <v>70.834837958073265</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y97" s="2"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -10441,11 +10487,11 @@
         <v>21210.026742956859</v>
       </c>
       <c r="S98" s="7">
-        <f>$J98*(1+$L98)^8</f>
+        <f t="shared" si="20"/>
         <v>19783.781378147956</v>
       </c>
       <c r="T98" s="7">
-        <f>$J98*(1+$L98)^13</f>
+        <f t="shared" si="21"/>
         <v>21993.20750423467</v>
       </c>
       <c r="U98" s="6">
@@ -10464,8 +10510,9 @@
         <f t="shared" si="19"/>
         <v>107.86716940082027</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y98" s="2"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -10525,11 +10572,11 @@
         <v>118097.29762806051</v>
       </c>
       <c r="S99" s="7">
-        <f>$J99*(1+$L99)^8</f>
+        <f t="shared" si="20"/>
         <v>100470.71538157109</v>
       </c>
       <c r="T99" s="7">
-        <f>$J99*(1+$L99)^13</f>
+        <f t="shared" si="21"/>
         <v>111691.14989950683</v>
       </c>
       <c r="U99" s="6">
@@ -10548,8 +10595,9 @@
         <f t="shared" si="19"/>
         <v>173.16385866640505</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y99" s="2"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -10609,11 +10657,11 @@
         <v>164372.34258412779</v>
       </c>
       <c r="S100" s="7">
-        <f>$J100*(1+$L100)^8</f>
+        <f t="shared" si="20"/>
         <v>174462.36572836933</v>
       </c>
       <c r="T100" s="7">
-        <f>$J100*(1+$L100)^13</f>
+        <f t="shared" si="21"/>
         <v>193946.0883540608</v>
       </c>
       <c r="U100" s="6">
@@ -10632,8 +10680,9 @@
         <f t="shared" si="19"/>
         <v>469.33599360340895</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y100" s="2"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -10693,11 +10742,11 @@
         <v>6826.389610540421</v>
       </c>
       <c r="S101" s="7">
-        <f>$J101*(1+$L101)^8</f>
+        <f t="shared" ref="S101:S130" si="22">$J101*(1+$L101)^8</f>
         <v>9075.1182047776474</v>
       </c>
       <c r="T101" s="7">
-        <f>$J101*(1+$L101)^13</f>
+        <f t="shared" ref="T101:T130" si="23">$J101*(1+$L101)^13</f>
         <v>10088.615214055553</v>
       </c>
       <c r="U101" s="6">
@@ -10716,8 +10765,9 @@
         <f t="shared" si="19"/>
         <v>50.972322162870896</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y101" s="2"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -10777,11 +10827,11 @@
         <v>49519.094752496429</v>
       </c>
       <c r="S102" s="7">
-        <f>$J102*(1+$L102)^8</f>
+        <f t="shared" si="22"/>
         <v>43218.458762969283</v>
       </c>
       <c r="T102" s="7">
-        <f>$J102*(1+$L102)^13</f>
+        <f t="shared" si="23"/>
         <v>48045.038176426424</v>
       </c>
       <c r="U102" s="6">
@@ -10800,8 +10850,9 @@
         <f t="shared" si="19"/>
         <v>117.62124900918894</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y102" s="2"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -10861,11 +10912,11 @@
         <v>42344.316914790856</v>
       </c>
       <c r="S103" s="7">
-        <f>$J103*(1+$L103)^8</f>
+        <f t="shared" si="22"/>
         <v>34675.21995695748</v>
       </c>
       <c r="T103" s="7">
-        <f>$J103*(1+$L103)^13</f>
+        <f t="shared" si="23"/>
         <v>38547.701937845472</v>
       </c>
       <c r="U103" s="6">
@@ -10884,8 +10935,9 @@
         <f t="shared" si="19"/>
         <v>66.297714534986824</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y103" s="2"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -10945,11 +10997,11 @@
         <v>1242.079766414899</v>
       </c>
       <c r="S104" s="7">
-        <f>$J104*(1+$L104)^8</f>
+        <f t="shared" si="22"/>
         <v>11357.816648924172</v>
       </c>
       <c r="T104" s="7">
-        <f>$J104*(1+$L104)^13</f>
+        <f t="shared" si="23"/>
         <v>12626.242353787318</v>
       </c>
       <c r="U104" s="6">
@@ -10968,8 +11020,9 @@
         <f t="shared" si="19"/>
         <v>17.23434280958962</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y104" s="2"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -11029,11 +11082,11 @@
         <v>898577.54808320629</v>
       </c>
       <c r="S105" s="7">
-        <f>$J105*(1+$L105)^8</f>
+        <f t="shared" si="22"/>
         <v>1064499.1511273878</v>
       </c>
       <c r="T105" s="7">
-        <f>$J105*(1+$L105)^13</f>
+        <f t="shared" si="23"/>
         <v>1231053.9166903533</v>
       </c>
       <c r="U105" s="6">
@@ -11053,7 +11106,7 @@
         <v>2042.5946093338093</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -11113,11 +11166,11 @@
         <v>515714.01970946626</v>
       </c>
       <c r="S106" s="7">
-        <f>$J106*(1+$L106)^8</f>
+        <f t="shared" si="22"/>
         <v>510556.95859178918</v>
       </c>
       <c r="T106" s="7">
-        <f>$J106*(1+$L106)^13</f>
+        <f t="shared" si="23"/>
         <v>590440.24873320141</v>
       </c>
       <c r="U106" s="6">
@@ -11137,7 +11190,7 @@
         <v>1526.354887997019</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -11197,11 +11250,11 @@
         <v>593302.84824514796</v>
       </c>
       <c r="S107" s="7">
-        <f>$J107*(1+$L107)^8</f>
+        <f t="shared" si="22"/>
         <v>375385.36748903745</v>
       </c>
       <c r="T107" s="7">
-        <f>$J107*(1+$L107)^13</f>
+        <f t="shared" si="23"/>
         <v>434119.30054261338</v>
       </c>
       <c r="U107" s="6">
@@ -11221,7 +11274,7 @@
         <v>589.68341490672753</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -11281,11 +11334,11 @@
         <v>102234.17470080349</v>
       </c>
       <c r="S108" s="7">
-        <f>$J108*(1+$L108)^8</f>
+        <f t="shared" si="22"/>
         <v>73811.827801741878</v>
       </c>
       <c r="T108" s="7">
-        <f>$J108*(1+$L108)^13</f>
+        <f t="shared" si="23"/>
         <v>76166.381438322249</v>
       </c>
       <c r="U108" s="6">
@@ -11304,8 +11357,9 @@
         <f t="shared" si="19"/>
         <v>214.73721586807076</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y108" s="2"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>137</v>
       </c>
@@ -11365,11 +11419,11 @@
         <v>48623.649298533288</v>
       </c>
       <c r="S109" s="7">
-        <f>$J109*(1+$L109)^8</f>
+        <f t="shared" si="22"/>
         <v>42991.617347022104</v>
       </c>
       <c r="T109" s="7">
-        <f>$J109*(1+$L109)^13</f>
+        <f t="shared" si="23"/>
         <v>44363.024504677043</v>
       </c>
       <c r="U109" s="6">
@@ -11388,8 +11442,9 @@
         <f t="shared" si="19"/>
         <v>189.04626888341701</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y109" s="2"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>138</v>
       </c>
@@ -11449,11 +11504,11 @@
         <v>70402.389480839454</v>
       </c>
       <c r="S110" s="7">
-        <f>$J110*(1+$L110)^8</f>
+        <f t="shared" si="22"/>
         <v>87507.946572561559</v>
       </c>
       <c r="T110" s="7">
-        <f>$J110*(1+$L110)^13</f>
+        <f t="shared" si="23"/>
         <v>90299.398294710132</v>
       </c>
       <c r="U110" s="6">
@@ -11472,8 +11527,9 @@
         <f t="shared" si="19"/>
         <v>173.90090786841537</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y110" s="2"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>139</v>
       </c>
@@ -11533,11 +11589,11 @@
         <v>89198.004808654077</v>
       </c>
       <c r="S111" s="7">
-        <f>$J111*(1+$L111)^8</f>
+        <f t="shared" si="22"/>
         <v>122088.41197733516</v>
       </c>
       <c r="T111" s="7">
-        <f>$J111*(1+$L111)^13</f>
+        <f t="shared" si="23"/>
         <v>125982.96008658512</v>
       </c>
       <c r="U111" s="6">
@@ -11556,8 +11612,9 @@
         <f t="shared" si="19"/>
         <v>482.19398548868696</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y111" s="2"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>140</v>
       </c>
@@ -11617,11 +11674,11 @@
         <v>939485.93261185207</v>
       </c>
       <c r="S112" s="7">
-        <f>$J112*(1+$L112)^8</f>
+        <f t="shared" si="22"/>
         <v>366348.1403838924</v>
       </c>
       <c r="T112" s="7">
-        <f>$J112*(1+$L112)^13</f>
+        <f t="shared" si="23"/>
         <v>445504.2817381426</v>
       </c>
       <c r="U112" s="6">
@@ -11641,7 +11698,7 @@
         <v>16541.737863762348</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
@@ -11701,11 +11758,11 @@
         <v>1169632.4436278834</v>
       </c>
       <c r="S113" s="7">
-        <f>$J113*(1+$L113)^8</f>
+        <f t="shared" si="22"/>
         <v>1749353.2932691129</v>
       </c>
       <c r="T113" s="7">
-        <f>$J113*(1+$L113)^13</f>
+        <f t="shared" si="23"/>
         <v>2127332.7103761015</v>
       </c>
       <c r="U113" s="6">
@@ -11725,7 +11782,7 @@
         <v>4951.7200677682504</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
@@ -11785,11 +11842,11 @@
         <v>2252033.2128878902</v>
       </c>
       <c r="S114" s="7">
-        <f>$J114*(1+$L114)^8</f>
+        <f t="shared" si="22"/>
         <v>1560646.9344323606</v>
       </c>
       <c r="T114" s="7">
-        <f>$J114*(1+$L114)^13</f>
+        <f t="shared" si="23"/>
         <v>1897852.929845779</v>
       </c>
       <c r="U114" s="6">
@@ -11809,7 +11866,7 @@
         <v>10140.067049278976</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>144</v>
       </c>
@@ -11869,11 +11926,11 @@
         <v>788529.80082813534</v>
       </c>
       <c r="S115" s="7">
-        <f>$J115*(1+$L115)^8</f>
+        <f t="shared" si="22"/>
         <v>1048181.0065292775</v>
       </c>
       <c r="T115" s="7">
-        <f>$J115*(1+$L115)^13</f>
+        <f t="shared" si="23"/>
         <v>1274659.4699677117</v>
       </c>
       <c r="U115" s="6">
@@ -11893,7 +11950,7 @@
         <v>2005.7980496658845</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
@@ -11953,11 +12010,11 @@
         <v>117454.57995196641</v>
       </c>
       <c r="S116" s="7">
-        <f>$J116*(1+$L116)^8</f>
+        <f t="shared" si="22"/>
         <v>115062.85170534768</v>
       </c>
       <c r="T116" s="7">
-        <f>$J116*(1+$L116)^13</f>
+        <f t="shared" si="23"/>
         <v>139924.26179649081</v>
       </c>
       <c r="U116" s="6">
@@ -11977,7 +12034,7 @@
         <v>538.43314280584559</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
@@ -12037,11 +12094,11 @@
         <v>399289.40786600171</v>
       </c>
       <c r="S117" s="7">
-        <f>$J117*(1+$L117)^8</f>
+        <f t="shared" si="22"/>
         <v>392482.47613273369</v>
       </c>
       <c r="T117" s="7">
-        <f>$J117*(1+$L117)^13</f>
+        <f t="shared" si="23"/>
         <v>454553.18823026068</v>
       </c>
       <c r="U117" s="6">
@@ -12061,7 +12118,7 @@
         <v>742.21939752003379</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -12121,11 +12178,11 @@
         <v>177636.76772496616</v>
       </c>
       <c r="S118" s="7">
-        <f>$J118*(1+$L118)^8</f>
+        <f t="shared" si="22"/>
         <v>149934.88033192116</v>
       </c>
       <c r="T118" s="7">
-        <f>$J118*(1+$L118)^13</f>
+        <f t="shared" si="23"/>
         <v>173646.93209576205</v>
       </c>
       <c r="U118" s="6">
@@ -12145,7 +12202,7 @@
         <v>711.42896629299469</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -12205,11 +12262,11 @@
         <v>147319.05029383872</v>
       </c>
       <c r="S119" s="7">
-        <f>$J119*(1+$L119)^8</f>
+        <f t="shared" si="22"/>
         <v>124081.02953504572</v>
       </c>
       <c r="T119" s="7">
-        <f>$J119*(1+$L119)^13</f>
+        <f t="shared" si="23"/>
         <v>143704.32058468202</v>
       </c>
       <c r="U119" s="6">
@@ -12229,7 +12286,7 @@
         <v>936.78612631042643</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -12289,11 +12346,11 @@
         <v>14257.573434967308</v>
       </c>
       <c r="S120" s="7">
-        <f>$J120*(1+$L120)^8</f>
+        <f t="shared" si="22"/>
         <v>33316.192155006873</v>
       </c>
       <c r="T120" s="7">
-        <f>$J120*(1+$L120)^13</f>
+        <f t="shared" si="23"/>
         <v>38585.11471128415</v>
       </c>
       <c r="U120" s="6">
@@ -12313,7 +12370,7 @@
         <v>418.76104656722129</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -12373,11 +12430,11 @@
         <v>133445.47273320981</v>
       </c>
       <c r="S121" s="7">
-        <f>$J121*(1+$L121)^8</f>
+        <f t="shared" si="22"/>
         <v>126243.84372528382</v>
       </c>
       <c r="T121" s="7">
-        <f>$J121*(1+$L121)^13</f>
+        <f t="shared" si="23"/>
         <v>146209.18168169033</v>
       </c>
       <c r="U121" s="6">
@@ -12397,7 +12454,7 @@
         <v>899.22609555607789</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -12457,11 +12514,11 @@
         <v>164859.92658241166</v>
       </c>
       <c r="S122" s="7">
-        <f>$J122*(1+$L122)^8</f>
+        <f t="shared" si="22"/>
         <v>141523.93625877297</v>
       </c>
       <c r="T122" s="7">
-        <f>$J122*(1+$L122)^13</f>
+        <f t="shared" si="23"/>
         <v>163905.80560739641</v>
       </c>
       <c r="U122" s="6">
@@ -12481,7 +12538,7 @@
         <v>1370.8774617322536</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -12541,11 +12598,11 @@
         <v>82915.788533942672</v>
       </c>
       <c r="S123" s="7">
-        <f>$J123*(1+$L123)^8</f>
+        <f t="shared" si="22"/>
         <v>100421.8410579284</v>
       </c>
       <c r="T123" s="7">
-        <f>$J123*(1+$L123)^13</f>
+        <f t="shared" si="23"/>
         <v>113064.94149208638</v>
       </c>
       <c r="U123" s="6">
@@ -12564,8 +12621,9 @@
         <f t="shared" si="19"/>
         <v>128.4112303822908</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y123" s="2"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>155</v>
       </c>
@@ -12625,11 +12683,11 @@
         <v>119460.47189852541</v>
       </c>
       <c r="S124" s="7">
-        <f>$J124*(1+$L124)^8</f>
+        <f t="shared" si="22"/>
         <v>123408.35659208095</v>
       </c>
       <c r="T124" s="7">
-        <f>$J124*(1+$L124)^13</f>
+        <f t="shared" si="23"/>
         <v>138945.45719062525</v>
       </c>
       <c r="U124" s="6">
@@ -12648,8 +12706,9 @@
         <f t="shared" si="19"/>
         <v>326.02614861475541</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y124" s="2"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
@@ -12709,11 +12768,11 @@
         <v>62275.110447052095</v>
       </c>
       <c r="S125" s="7">
-        <f>$J125*(1+$L125)^8</f>
+        <f t="shared" si="22"/>
         <v>57526.735126362124</v>
       </c>
       <c r="T125" s="7">
-        <f>$J125*(1+$L125)^13</f>
+        <f t="shared" si="23"/>
         <v>64769.34571973142</v>
       </c>
       <c r="U125" s="6">
@@ -12732,8 +12791,9 @@
         <f t="shared" si="19"/>
         <v>175.54891370766038</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y125" s="2"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>157</v>
       </c>
@@ -12793,11 +12853,11 @@
         <v>131008.14011190688</v>
       </c>
       <c r="S126" s="7">
-        <f>$J126*(1+$L126)^8</f>
+        <f t="shared" si="22"/>
         <v>119221.84647875548</v>
       </c>
       <c r="T126" s="7">
-        <f>$J126*(1+$L126)^13</f>
+        <f t="shared" si="23"/>
         <v>134231.86584403642</v>
       </c>
       <c r="U126" s="6">
@@ -12816,8 +12876,9 @@
         <f t="shared" si="19"/>
         <v>176.30332177377119</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y126" s="2"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>158</v>
       </c>
@@ -12877,11 +12938,11 @@
         <v>48960.763227554162</v>
       </c>
       <c r="S127" s="7">
-        <f>$J127*(1+$L127)^8</f>
+        <f t="shared" si="22"/>
         <v>60570.810340151758</v>
       </c>
       <c r="T127" s="7">
-        <f>$J127*(1+$L127)^13</f>
+        <f t="shared" si="23"/>
         <v>68196.66971935911</v>
       </c>
       <c r="U127" s="6">
@@ -12900,8 +12961,9 @@
         <f t="shared" si="19"/>
         <v>189.71648861156331</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y127" s="2"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>159</v>
       </c>
@@ -12961,11 +13023,11 @@
         <v>76805.753205661807</v>
       </c>
       <c r="S128" s="7">
-        <f>$J128*(1+$L128)^8</f>
+        <f t="shared" si="22"/>
         <v>66573.127034538396</v>
       </c>
       <c r="T128" s="7">
-        <f>$J128*(1+$L128)^13</f>
+        <f t="shared" si="23"/>
         <v>74954.677526408952</v>
       </c>
       <c r="U128" s="6">
@@ -12984,8 +13046,9 @@
         <f t="shared" si="19"/>
         <v>109.50756348623925</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y128" s="2"/>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>160</v>
       </c>
@@ -13045,11 +13108,11 @@
         <v>58788.483106545958</v>
       </c>
       <c r="S129" s="7">
-        <f>$J129*(1+$L129)^8</f>
+        <f t="shared" si="22"/>
         <v>62639.28241751239</v>
       </c>
       <c r="T129" s="7">
-        <f>$J129*(1+$L129)^13</f>
+        <f t="shared" si="23"/>
         <v>70525.562238566024</v>
       </c>
       <c r="U129" s="6">
@@ -13068,8 +13131,9 @@
         <f t="shared" si="19"/>
         <v>139.76264235678946</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y129" s="2"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>161</v>
       </c>
@@ -13129,11 +13193,11 @@
         <v>189762.87328887236</v>
       </c>
       <c r="S130" s="7">
-        <f>$J130*(1+$L130)^8</f>
+        <f t="shared" si="22"/>
         <v>166328.84996585912</v>
       </c>
       <c r="T130" s="7">
-        <f>$J130*(1+$L130)^13</f>
+        <f t="shared" si="23"/>
         <v>187269.63668180158</v>
       </c>
       <c r="U130" s="6">
@@ -13152,8 +13216,9 @@
         <f t="shared" si="19"/>
         <v>83.644653497522754</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y130" s="2"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>162</v>
       </c>
@@ -13197,47 +13262,47 @@
         <v>321.31249158238103</v>
       </c>
       <c r="O131" s="6">
-        <f t="shared" ref="O131:O154" si="20">$K131/$N131</f>
+        <f t="shared" ref="O131:O154" si="24">$K131/$N131</f>
         <v>1148.6574897302814</v>
       </c>
       <c r="P131" s="6">
-        <f t="shared" ref="P131:P154" si="21">$J131/$N131</f>
+        <f t="shared" ref="P131:P154" si="25">$J131/$N131</f>
         <v>1121.6650750958934</v>
       </c>
       <c r="Q131" s="3">
-        <f t="shared" ref="Q131:Q154" si="22">$K131*(1+$L131)^6</f>
+        <f t="shared" ref="Q131:Q154" si="26">$K131*(1+$L131)^6</f>
         <v>426516.24524397985</v>
       </c>
       <c r="R131" s="3">
-        <f t="shared" ref="R131:R154" si="23">$K131*(1+$L131)^11</f>
+        <f t="shared" ref="R131:R154" si="27">$K131*(1+$L131)^11</f>
         <v>481153.25296484068</v>
       </c>
       <c r="S131" s="7">
-        <f t="shared" ref="S131:S154" si="24">$J131*(1+$L131)^8</f>
+        <f t="shared" ref="S131:S154" si="28">$J131*(1+$L131)^8</f>
         <v>437066.34459070623</v>
       </c>
       <c r="T131" s="7">
-        <f t="shared" ref="T131:T154" si="25">$J131*(1+$L131)^13</f>
+        <f t="shared" ref="T131:T154" si="29">$J131*(1+$L131)^13</f>
         <v>493054.82688232634</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" ref="U131:U154" si="26">$Q131/$N131</f>
+        <f t="shared" ref="U131:U154" si="30">$Q131/$N131</f>
         <v>1327.4188100919996</v>
       </c>
       <c r="V131" s="6">
-        <f t="shared" ref="V131:V154" si="27">$R131/$N131</f>
+        <f t="shared" ref="V131:V154" si="31">$R131/$N131</f>
         <v>1497.4620208361187</v>
       </c>
       <c r="W131" s="8">
-        <f t="shared" ref="W131:W154" si="28">$S131/$N131</f>
+        <f t="shared" ref="W131:W154" si="32">$S131/$N131</f>
         <v>1360.2531991155008</v>
       </c>
       <c r="X131" s="8">
-        <f t="shared" ref="X131:X154" si="29">$T131/$N131</f>
+        <f t="shared" ref="X131:X154" si="33">$T131/$N131</f>
         <v>1534.5025163950479</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>163</v>
       </c>
@@ -13281,47 +13346,47 @@
         <v>285.00908745343702</v>
       </c>
       <c r="O132" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1616.1203985302798</v>
       </c>
       <c r="P132" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1441.1505389880042</v>
       </c>
       <c r="Q132" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>532291.87652903807</v>
       </c>
       <c r="R132" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>600478.81124012347</v>
       </c>
       <c r="S132" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>498109.25887135655</v>
       </c>
       <c r="T132" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>561917.37808430404</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1867.631243919549</v>
       </c>
       <c r="V132" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2106.8760179032042</v>
       </c>
       <c r="W132" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1747.6960588238594</v>
       </c>
       <c r="X132" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1971.5770577880487</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>164</v>
       </c>
@@ -13365,47 +13430,47 @@
         <v>423.35256221307998</v>
       </c>
       <c r="O133" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>930.98290923210754</v>
       </c>
       <c r="P133" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1133.1170348711753</v>
       </c>
       <c r="Q133" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>455471.61793168582</v>
       </c>
       <c r="R133" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>513817.82767882268</v>
       </c>
       <c r="S133" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>581746.15233117878</v>
       </c>
       <c r="T133" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>656268.21185629221</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1075.8683390285939</v>
       </c>
       <c r="V133" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1213.6877712345345</v>
       </c>
       <c r="W133" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1374.1410924504498</v>
       </c>
       <c r="X133" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1550.1694578760626</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>165</v>
       </c>
@@ -13449,47 +13514,47 @@
         <v>450.78853967265701</v>
       </c>
       <c r="O134" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1047.6109271609437</v>
       </c>
       <c r="P134" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1199.3960636013815</v>
       </c>
       <c r="Q134" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>545745.67796702788</v>
       </c>
       <c r="R134" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>615656.05337055842</v>
       </c>
       <c r="S134" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>655680.16202670743</v>
       </c>
       <c r="T134" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>739673.21615897364</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1210.6467443988806</v>
       </c>
       <c r="V134" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1365.7313777710965</v>
       </c>
       <c r="W134" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1454.51825927703</v>
       </c>
       <c r="X134" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1640.8429919183218</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>166</v>
       </c>
@@ -13533,47 +13598,47 @@
         <v>331.165076712999</v>
       </c>
       <c r="O135" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2799.9902924655307</v>
       </c>
       <c r="P135" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1714.4501033605331</v>
       </c>
       <c r="Q135" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1122765.43078787</v>
       </c>
       <c r="R135" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1316827.876958421</v>
       </c>
       <c r="S135" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>732745.81843778584</v>
       </c>
       <c r="T135" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>859396.0002549222</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3390.3497371520962</v>
       </c>
       <c r="V135" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3976.348865129994</v>
       </c>
       <c r="W135" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2212.6301049334766</v>
       </c>
       <c r="X135" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>2595.0683229793262</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>168</v>
       </c>
@@ -13617,47 +13682,47 @@
         <v>1195.52023850198</v>
       </c>
       <c r="O136" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>41.902260109599169</v>
       </c>
       <c r="P136" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>131.16800113437836</v>
       </c>
       <c r="Q136" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>60657.199612317971</v>
       </c>
       <c r="R136" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>71141.388216487627</v>
       </c>
       <c r="S136" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>202380.56307088298</v>
       </c>
       <c r="T136" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>237360.68095654788</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50.737074671628413</v>
       </c>
       <c r="V136" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>59.506636462825391</v>
       </c>
       <c r="W136" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>169.28242329420658</v>
       </c>
       <c r="X136" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>198.54175053863361</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>169</v>
       </c>
@@ -13701,47 +13766,47 @@
         <v>337.72792525929202</v>
       </c>
       <c r="O137" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>495.37508594100768</v>
       </c>
       <c r="P137" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>921.36887928677027</v>
       </c>
       <c r="Q137" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>202576.52080127798</v>
       </c>
       <c r="R137" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>237590.50866143953</v>
       </c>
       <c r="S137" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>401591.46869471349</v>
       </c>
       <c r="T137" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>471003.85051469202</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>599.82164828611371</v>
       </c>
       <c r="V137" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>703.49678214802168</v>
       </c>
       <c r="W137" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1189.0976098182878</v>
       </c>
       <c r="X137" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1394.6251265810397</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>170</v>
       </c>
@@ -13785,47 +13850,47 @@
         <v>147.27942942607399</v>
       </c>
       <c r="O138" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>490.78815881943655</v>
       </c>
       <c r="P138" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>609.99014152953475</v>
       </c>
       <c r="Q138" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>87523.392745327466</v>
       </c>
       <c r="R138" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>102651.22196730961</v>
       </c>
       <c r="S138" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>115944.15935901806</v>
       </c>
       <c r="T138" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>135984.32675944307</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>594.26759790143876</v>
       </c>
       <c r="V138" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>696.98275154463965</v>
       </c>
       <c r="W138" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>787.23933010085102</v>
       </c>
       <c r="X138" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>923.30834855453838</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>171</v>
       </c>
@@ -13869,47 +13934,47 @@
         <v>427.10905175220302</v>
       </c>
       <c r="O139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>740.55325847672941</v>
       </c>
       <c r="P139" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1029.3296248262723</v>
       </c>
       <c r="Q139" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>382986.13166538248</v>
       </c>
       <c r="R139" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>449182.70623236621</v>
       </c>
       <c r="S139" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>567384.16994803213</v>
       </c>
       <c r="T139" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>665452.70405074093</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>896.6940178256408</v>
       </c>
       <c r="V139" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1051.681542195387</v>
       </c>
       <c r="W139" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1328.4292796426448</v>
       </c>
       <c r="X139" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1558.03933754328</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>172</v>
       </c>
@@ -13953,47 +14018,47 @@
         <v>1951.5905272316299</v>
       </c>
       <c r="O140" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.59848620071795045</v>
       </c>
       <c r="P140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>19.921187081774381</v>
       </c>
       <c r="Q140" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1414.2650792930908</v>
       </c>
       <c r="R140" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1658.7112773102615</v>
       </c>
       <c r="S140" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50175.057909815383</v>
       </c>
       <c r="T140" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>58847.47888727198</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.72467306002927467</v>
       </c>
       <c r="V140" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.8499279199019153</v>
       </c>
       <c r="W140" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>25.709828578123762</v>
       </c>
       <c r="X140" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30.153599367357199</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>173</v>
       </c>
@@ -14037,47 +14102,47 @@
         <v>275.11550394395101</v>
       </c>
       <c r="O141" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>475.93101124055681</v>
       </c>
       <c r="P141" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>620.99371918641873</v>
       </c>
       <c r="Q141" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>158542.99008760287</v>
       </c>
       <c r="R141" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>185946.07860093869</v>
       </c>
       <c r="S141" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>220488.65087202037</v>
       </c>
       <c r="T141" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>258598.62982910598</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>576.2779189641841</v>
       </c>
       <c r="V141" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>675.88367771094897</v>
       </c>
       <c r="W141" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>801.44029584366967</v>
       </c>
       <c r="X141" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>939.96385562403634</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>174</v>
       </c>
@@ -14121,47 +14186,47 @@
         <v>287.94100672515799</v>
       </c>
       <c r="O142" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1057.6159452365787</v>
       </c>
       <c r="P142" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>783.35143217477832</v>
       </c>
       <c r="Q142" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>368739.34834092832</v>
       </c>
       <c r="R142" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>432473.46232069453</v>
       </c>
       <c r="S142" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>291101.28831421491</v>
       </c>
       <c r="T142" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>341416.18628360977</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1280.6072762428487</v>
       </c>
       <c r="V142" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1501.9516227971444</v>
       </c>
       <c r="W142" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1010.9754481482154</v>
       </c>
       <c r="X142" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1185.7157483980538</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>175</v>
       </c>
@@ -14205,47 +14270,47 @@
         <v>394.88134614572198</v>
       </c>
       <c r="O143" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>282.36329998442989</v>
       </c>
       <c r="P143" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>545.37141878696741</v>
       </c>
       <c r="Q143" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>135009.03796333872</v>
       </c>
       <c r="R143" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>158344.44128432719</v>
       </c>
       <c r="S143" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>277934.82036843745</v>
       </c>
       <c r="T143" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>325973.98299105489</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>341.8977353098789</v>
       </c>
       <c r="V143" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>400.99245717698142</v>
       </c>
       <c r="W143" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>703.84388394449991</v>
       </c>
       <c r="X143" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>825.49856095446353</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>176</v>
       </c>
@@ -14289,43 +14354,43 @@
         <v>1680.13545358939</v>
       </c>
       <c r="O144" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>237.53501489858701</v>
       </c>
       <c r="P144" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>248.84957882817235</v>
       </c>
       <c r="Q144" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>466356.36381148273</v>
       </c>
       <c r="R144" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>530993.9244305481</v>
       </c>
       <c r="S144" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>514607.17544746393</v>
       </c>
       <c r="T144" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>585932.35738802282</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>277.57069396706873</v>
       </c>
       <c r="V144" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>316.04233057290048</v>
       </c>
       <c r="W144" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>306.28909969614233</v>
       </c>
       <c r="X144" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>348.74114235031163</v>
       </c>
     </row>
@@ -14373,43 +14438,43 @@
         <v>1138.6394260720299</v>
       </c>
       <c r="O145" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>23.326084967586414</v>
       </c>
       <c r="P145" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.001912626347909</v>
       </c>
       <c r="Q145" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>31036.593215163914</v>
       </c>
       <c r="R145" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>35338.302875472902</v>
       </c>
       <c r="S145" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>43447.95466477114</v>
       </c>
       <c r="T145" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>49469.894154276612</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>27.257613344929574</v>
       </c>
       <c r="V145" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>31.03555178778555</v>
       </c>
       <c r="W145" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.157781708520112</v>
       </c>
       <c r="X145" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>43.446496776361549</v>
       </c>
     </row>
@@ -14457,43 +14522,43 @@
         <v>204.39321578286399</v>
       </c>
       <c r="O146" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>633.49460746072168</v>
       </c>
       <c r="P146" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>126.55997363180943</v>
       </c>
       <c r="Q146" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>128707.04764230146</v>
       </c>
       <c r="R146" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>128064.79818813931</v>
       </c>
       <c r="S146" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>25661.778857201312</v>
       </c>
       <c r="T146" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>25533.726324214374</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>629.7031295746757</v>
       </c>
       <c r="V146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>626.56090466421472</v>
       </c>
       <c r="W146" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>125.55103044351023</v>
       </c>
       <c r="X146" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>124.92452954671445</v>
       </c>
     </row>
@@ -14541,43 +14606,43 @@
         <v>249.987980050761</v>
       </c>
       <c r="O147" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>606.94518180110447</v>
       </c>
       <c r="P147" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>992.51171976196258</v>
       </c>
       <c r="Q147" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>150820.89890269504</v>
       </c>
       <c r="R147" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>150068.30110971554</v>
       </c>
       <c r="S147" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>246138.00537085824</v>
       </c>
       <c r="T147" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>244909.77426390804</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>603.31260275822183</v>
       </c>
       <c r="V147" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>600.30206684034817</v>
       </c>
       <c r="W147" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>984.59936082078423</v>
       </c>
       <c r="X147" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>979.68620016921693</v>
       </c>
     </row>
@@ -14625,43 +14690,43 @@
         <v>373.44131136691499</v>
       </c>
       <c r="O148" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>300.95224223753894</v>
       </c>
       <c r="P148" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>296.18576368838046</v>
       </c>
       <c r="Q148" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>136242.51973037983</v>
       </c>
       <c r="R148" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>159945.95841788035</v>
       </c>
       <c r="S148" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>142969.535186575</v>
       </c>
       <c r="T148" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>167843.33830018376</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>364.82980212255711</v>
       </c>
       <c r="V148" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>428.3027976536041</v>
       </c>
       <c r="W148" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>382.84338351121528</v>
       </c>
       <c r="X148" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>449.45037731852244</v>
       </c>
     </row>
@@ -14709,43 +14774,43 @@
         <v>431.16668643867598</v>
       </c>
       <c r="O149" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>879.71546023871133</v>
       </c>
       <c r="P149" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>913.99918499048999</v>
       </c>
       <c r="Q149" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>459811.83670687251</v>
       </c>
       <c r="R149" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>539809.78228757239</v>
       </c>
       <c r="S149" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>509387.13513974217</v>
       </c>
       <c r="T149" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>598010.17844429181</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1066.4363717540377</v>
       </c>
       <c r="V149" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1251.9746985701979</v>
       </c>
       <c r="W149" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1181.4157984865358</v>
       </c>
       <c r="X149" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1386.9582165164461</v>
       </c>
     </row>
@@ -14793,43 +14858,43 @@
         <v>1253.4322322738401</v>
       </c>
       <c r="O150" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>12.525607364922132</v>
       </c>
       <c r="P150" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>47.69065168490129</v>
       </c>
       <c r="Q150" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>19032.348291338607</v>
       </c>
       <c r="R150" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>22343.591372394931</v>
       </c>
       <c r="S150" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>77266.47172761368</v>
       </c>
       <c r="T150" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>90709.272688865953</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>15.184186110175414</v>
       </c>
       <c r="V150" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>17.825926920565639</v>
       </c>
       <c r="W150" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>61.643916390633478</v>
       </c>
       <c r="X150" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>72.368709175693596</v>
       </c>
     </row>
@@ -14877,43 +14942,43 @@
         <v>134.86881966713699</v>
       </c>
       <c r="O151" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1804.6721295604766</v>
       </c>
       <c r="P151" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1379.7926048384047</v>
       </c>
       <c r="Q151" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>295054.73758102348</v>
       </c>
       <c r="R151" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>346388.28525431157</v>
       </c>
       <c r="S151" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>240537.2466042685</v>
       </c>
       <c r="T151" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>282385.85516074335</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2187.7164663354611</v>
       </c>
       <c r="V151" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2568.3348168184111</v>
       </c>
       <c r="W151" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1783.4904108890883</v>
       </c>
       <c r="X151" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>2093.7816157781003</v>
       </c>
     </row>
@@ -14961,43 +15026,43 @@
         <v>720.823338942075</v>
       </c>
       <c r="O152" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>34.006945496488498</v>
       </c>
       <c r="P152" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25.395959052695243</v>
       </c>
       <c r="Q152" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>29715.920615642244</v>
       </c>
       <c r="R152" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>34885.888873345029</v>
       </c>
       <c r="S152" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>23661.944082936516</v>
       </c>
       <c r="T152" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>27778.643054057251</v>
       </c>
       <c r="U152" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>41.224970128263564</v>
       </c>
       <c r="V152" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48.397279872410515</v>
       </c>
       <c r="W152" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>32.826273518923863</v>
       </c>
       <c r="X152" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>38.537380178098715</v>
       </c>
     </row>
@@ -15045,43 +15110,43 @@
         <v>498.98979055216603</v>
       </c>
       <c r="O153" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>246.46997258983527</v>
       </c>
       <c r="P153" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>400.13243513271175</v>
       </c>
       <c r="Q153" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>149089.96095277515</v>
       </c>
       <c r="R153" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>175028.59417358998</v>
       </c>
       <c r="S153" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>258078.83095636789</v>
       </c>
       <c r="T153" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>302979.31986557296</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>298.78358991633274</v>
       </c>
       <c r="V153" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>350.76588236386357</v>
       </c>
       <c r="W153" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>517.20262787498348</v>
       </c>
       <c r="X153" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>607.18540860386304</v>
       </c>
     </row>
@@ -15129,43 +15194,43 @@
         <v>319.10007896404198</v>
       </c>
       <c r="O154" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>114.65055138429661</v>
       </c>
       <c r="P154" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>57.847055569297005</v>
       </c>
       <c r="Q154" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>44350.220524753051</v>
       </c>
       <c r="R154" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52066.260532424749</v>
       </c>
       <c r="S154" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>23859.708610670008</v>
       </c>
       <c r="T154" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>28010.814603673265</v>
       </c>
       <c r="U154" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>138.98530100254436</v>
       </c>
       <c r="V154" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>163.1659280732797</v>
       </c>
       <c r="W154" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>74.771866832908728</v>
       </c>
       <c r="X154" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>87.780657073512302</v>
       </c>
     </row>
@@ -15199,21 +15264,63 @@
         <v>39907982.978967361</v>
       </c>
       <c r="R155" s="18">
-        <f t="shared" ref="R155:T155" si="30">SUM(R2:R154)</f>
+        <f t="shared" ref="R155:T155" si="34">SUM(R2:R154)</f>
         <v>45889921.942214996</v>
       </c>
       <c r="S155" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>43190800.363371111</v>
       </c>
       <c r="T155" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>49693297.661972851</v>
       </c>
       <c r="U155" s="19"/>
       <c r="V155" s="19"/>
       <c r="W155" s="19"/>
       <c r="X155" s="19"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J158" t="s">
+        <v>416</v>
+      </c>
+      <c r="K158" s="22">
+        <f>K155*1.01</f>
+        <v>34133625.689999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K159" s="1">
+        <f>K158-K155</f>
+        <v>337956.68999999762</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J160" t="s">
+        <v>413</v>
+      </c>
+      <c r="K160" s="22">
+        <f>K159/21</f>
+        <v>16093.1757142856</v>
+      </c>
+    </row>
+    <row r="161" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J161" t="s">
+        <v>414</v>
+      </c>
+      <c r="K161" s="22">
+        <f>K159/3</f>
+        <v>112652.22999999921</v>
+      </c>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J162" t="s">
+        <v>415</v>
+      </c>
+      <c r="K162" s="22">
+        <f>K159/2</f>
+        <v>168978.34499999881</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20993,5 +21100,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/Population/KP_WSF_adm3_Pop.xlsx
+++ b/xlsx/Population/KP_WSF_adm3_Pop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/Documents/WB_FY2023/KPK Population Growth Analysis/KP_Pop_ServiceAccessibility_Project/xlsx/Population/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb578340\OneDrive - WBG\Documents\WB_FY2023\KPK Population Growth Analysis\KP_Pop_ServiceAccessibility_Project\xlsx\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8070C8B1-0021-401D-B2A5-E4C411D53DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDE811F-8550-4D19-BEE2-B699036A2286}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F69BF60-8BE5-4BDD-8523-93D7E7810077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="413">
   <si>
     <t>ADM3_NAME</t>
   </si>
@@ -1294,18 +1294,6 @@
   </si>
   <si>
     <t>WPOP20_Pop_density/sqkm_2030</t>
-  </si>
-  <si>
-    <t>Primary schools per capita</t>
-  </si>
-  <si>
-    <t>Hospitals per capita</t>
-  </si>
-  <si>
-    <t>Police Stations Per capita</t>
-  </si>
-  <si>
-    <t>1% increase in KP</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15281,46 +15269,19 @@
       <c r="X155" s="19"/>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="J158" t="s">
-        <v>416</v>
-      </c>
-      <c r="K158" s="22">
-        <f>K155*1.01</f>
-        <v>34133625.689999998</v>
-      </c>
+      <c r="K158" s="22"/>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="K159" s="1">
-        <f>K158-K155</f>
-        <v>337956.68999999762</v>
-      </c>
+      <c r="K159" s="1"/>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="J160" t="s">
-        <v>413</v>
-      </c>
-      <c r="K160" s="22">
-        <f>K159/21</f>
-        <v>16093.1757142856</v>
-      </c>
-    </row>
-    <row r="161" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J161" t="s">
-        <v>414</v>
-      </c>
-      <c r="K161" s="22">
-        <f>K159/3</f>
-        <v>112652.22999999921</v>
-      </c>
-    </row>
-    <row r="162" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J162" t="s">
-        <v>415</v>
-      </c>
-      <c r="K162" s="22">
-        <f>K159/2</f>
-        <v>168978.34499999881</v>
-      </c>
+      <c r="K160" s="22"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K161" s="22"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K162" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/Population/KP_WSF_adm3_Pop.xlsx
+++ b/xlsx/Population/KP_WSF_adm3_Pop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb578340\OneDrive - WBG\Documents\WB_FY2023\KPK Population Growth Analysis\KP_Pop_ServiceAccessibility_Project\xlsx\Population\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/Documents/WB_FY2023/KPK Population Growth Analysis/KP_Pop_ServiceAccessibility_Project/xlsx/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F69BF60-8BE5-4BDD-8523-93D7E7810077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:XFD165"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
